--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CFA70-A9BB-4657-8352-0EAE8D5F6CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF6B4A-2016-465A-9BAE-817050DE41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,26 +65,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰 띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란 띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초록 띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파랑 띠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 띠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -470,7 +450,7 @@
     <col min="2" max="2" width="84.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -520,10 +500,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>1000000000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
+        <v>2000000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -531,8 +508,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>5.29490675445531E+34*20000</f>
-        <v>1.058981350891062E+39</v>
+        <f>7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -547,10 +524,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>2000000000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
+        <v>3000000000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -558,8 +532,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>8.86362013846121E+35*28000</f>
-        <v>2.4818136387691388E+40</v>
+        <f t="shared" ref="B4:B31" si="0">7.08648207993664E+31*15000</f>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -574,10 +548,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>3000000000</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
+        <v>4000000000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -585,8 +556,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>5.29490675445531E+34*20000</f>
-        <v>1.058981350891062E+39</v>
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -601,10 +572,7 @@
         <v>11</v>
       </c>
       <c r="G5">
-        <v>4000000000</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+        <v>5000000000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -612,8 +580,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>8.86362013846121E+35*28000</f>
-        <v>2.4818136387691388E+40</v>
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -628,10 +596,607 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>5000000000</v>
-      </c>
-      <c r="H6" t="s">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>20000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3200</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3400</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>40000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3600</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>3800</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4000</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>110000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4200</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>120000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4400</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>130000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4600</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>140000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4800</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>150000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5000</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>160000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>5200</v>
+      </c>
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>170000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>5400</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>180000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>5600</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>190000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>5800</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>200000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>6000</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>220000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>6200</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>240000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>6400</v>
+      </c>
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>260000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>6600</v>
+      </c>
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>280000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>6800</v>
+      </c>
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>7000</v>
+      </c>
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>320000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>7200</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>340000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>7400</v>
+      </c>
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>360000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>7600</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>380000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>7800</v>
+      </c>
+      <c r="F31">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>400000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FF6B4A-2016-465A-9BAE-817050DE41AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1694-3845-4323-A6E9-848B90C85F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B31" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B36" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1197,6 +1197,126 @@
       </c>
       <c r="G31">
         <v>400000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>8000</v>
+      </c>
+      <c r="F32">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>420000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>8200</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>440000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>8400</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>460000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>8600</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>480000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>8800</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>500000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FC1694-3845-4323-A6E9-848B90C85F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5F9EA-E472-40E3-9347-A276AD3E150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B36" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B42" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1172,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="G30">
-        <v>380000000000</v>
+        <v>390000000000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>11</v>
       </c>
       <c r="G31">
-        <v>400000000000</v>
+        <v>420000000000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1220,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="G32">
-        <v>420000000000</v>
+        <v>450000000000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1244,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="G33">
-        <v>440000000000</v>
+        <v>480000000000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -1268,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="G34">
-        <v>460000000000</v>
+        <v>510000000000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,7 +1292,7 @@
         <v>11</v>
       </c>
       <c r="G35">
-        <v>480000000000</v>
+        <v>540000000000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1316,7 +1316,151 @@
         <v>11</v>
       </c>
       <c r="G36">
-        <v>500000000000</v>
+        <v>570000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>9000</v>
+      </c>
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>600000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>9200</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+      <c r="G38">
+        <v>630000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>9400</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+      <c r="G39">
+        <v>660000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>9600</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>690000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>9800</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>720000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>10000</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>750000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5F9EA-E472-40E3-9347-A276AD3E150F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98065E41-D293-46F5-9212-12B50C21E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B42" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B52" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1461,6 +1461,246 @@
       </c>
       <c r="G42">
         <v>750000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>10200</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+      <c r="G43">
+        <v>780000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>10400</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>810000000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>10600</v>
+      </c>
+      <c r="F45">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>840000000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>10800</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>870000000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>11000</v>
+      </c>
+      <c r="F47">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>900000000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>11200</v>
+      </c>
+      <c r="F48">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>930000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>11400</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>960000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>11600</v>
+      </c>
+      <c r="F50">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>990000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>11800</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>1020000000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>12000</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>1050000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98065E41-D293-46F5-9212-12B50C21E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2387DB3-6A03-4959-B9C8-FB18E4BA6D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="CaveBelt" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B52" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B57" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1701,6 +1701,126 @@
       </c>
       <c r="G52">
         <v>1050000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>12200</v>
+      </c>
+      <c r="F53">
+        <v>11</v>
+      </c>
+      <c r="G53">
+        <v>1080000000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>12400</v>
+      </c>
+      <c r="F54">
+        <v>11</v>
+      </c>
+      <c r="G54">
+        <v>1110000000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>12600</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>1140000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>12800</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>1170000000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>13000</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+      <c r="G57">
+        <v>1200000000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/CaveBelt.xlsx
+++ b/Assets/06.Table/CaveBelt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2387DB3-6A03-4959-B9C8-FB18E4BA6D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0604DF-ECF7-4ABD-8C72-9A284435CF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,11 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B57" si="0">7.08648207993664E+31*15000</f>
+        <f t="shared" ref="B4:B61" si="0">7.08648207993664E+31*15000</f>
         <v>1.062972311990496E+36</v>
       </c>
       <c r="C4">
@@ -1821,6 +1821,102 @@
       </c>
       <c r="G57">
         <v>1200000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>13200</v>
+      </c>
+      <c r="F58">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>1230000000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>13400</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>1260000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>13600</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>1290000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>1.062972311990496E+36</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>13800</v>
+      </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>1320000000000</v>
       </c>
     </row>
   </sheetData>
